--- a/GSE107451/processed_data/DESeq_result/DESeq_w1118_male_30_vs_3_UP0.05.xlsx
+++ b/GSE107451/processed_data/DESeq_result/DESeq_w1118_male_30_vs_3_UP0.05.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -36,6 +36,132 @@
   </si>
   <si>
     <t xml:space="preserve">sig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre-rRNA:CR45845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AstC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG42613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snRNA:7SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlcAT-P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xrp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MtnA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RpL22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnxB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eEF1alpha1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mgl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dscam4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRE16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ogre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pkn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp28d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCHa2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIG-T</t>
   </si>
 </sst>
 </file>
@@ -393,6 +519,1072 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>440.207050931794</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.40638202465432</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.454579210037987</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11.8931572436024</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0000000000000000000000000000000128457102046833</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0000000000000000000000000000290056136421748</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>187.458182888852</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.67499560439829</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.52099025189512</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.13444463628236</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000000282978376721944</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0000798706468297688</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>183.027207048691</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.42834801975305</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.568498703491526</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.27151021601098</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0000194153631226382</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00182666208045488</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>205.234922377746</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.5585309904775</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.378354602919046</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.11923359317759</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0000380134636567381</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0027893716282187</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>169.829342869056</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.08947339688804</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.544697962868355</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.83602205134928</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000125043185508671</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00525328241397597</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>131.539573417427</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.71658474934761</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.450444711036849</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.81086669970287</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.000138480428522739</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0056852510473517</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>168.607189803582</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.78909817247211</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.489054541266446</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.65827943819742</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.000253914120409594</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00910060450610894</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>311.758351701805</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.17835412404699</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.606111817435353</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.59398061774192</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.000325664073681971</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0103570349066745</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>999.851307668785</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.04946939235812</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.295074724508863</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.55662245929368</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.000375653411622003</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0114625054519255</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>631.383887365084</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.19119452676098</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.353017132781969</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.37432497220096</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.000739969557476827</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.019205186905548</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>114.642820314712</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.58123618864504</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.482004244172168</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.28054411919293</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.00103607059135058</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0241180143842227</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>456.736728227696</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.13947166419193</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.350072086645705</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.254962928093</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0011340716820323</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0258659985659489</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>160.181892698269</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.95419398905597</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.603788791910556</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.23655227662037</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0012098306447591</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0270475009491688</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>139.559448405761</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.33404520457746</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.434492376390126</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.07035353683543</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.00213805521766086</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0395715465694936</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="n">
+        <v>231.003484068689</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.18321217108311</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.388191229253847</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.04801366418658</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.00230359452473228</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0406368471628554</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>463.669911294369</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.6948497596123</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.556553708458423</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.04525822729094</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.00232480610488697</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0406931177118976</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>217.914795606129</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.10395182471062</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.365716459448305</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.01860032872452</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.00253945301598176</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0431134203765926</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="n">
+        <v>827.703345162253</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.05524361677866</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.352111700661469</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.99690017342879</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.00272740009472119</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0456904743304524</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="n">
+        <v>170.271618642208</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.41278575385002</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.807596051750666</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.98761459843657</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.00281163863066184</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0458323732175925</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="n">
+        <v>339.981859604641</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.15255120274564</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.386753496203813</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.98006666793846</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.00288185655735561</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0464802293322069</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="n">
+        <v>172.133648031728</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.19498099836909</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.413574629295191</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.88939628720834</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.00385982307336649</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0581032033310768</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n">
+        <v>190.138309944022</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.3742559089591</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.484513528579639</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.83636230548145</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.00456306496590246</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0669051993052452</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="n">
+        <v>718.544675949822</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.18191860009057</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.424107583617557</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.78683675026283</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.00532252847858327</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0751141831540064</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="n">
+        <v>120.972128350768</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.29537800325257</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.482232512750529</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.68621042547311</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.00722675600328318</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0901547793116764</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="n">
+        <v>244.534339985476</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.23408514712056</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.465675221474801</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.65009837373824</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.00804683368711542</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.097164440992014</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="n">
+        <v>141.454071539644</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.1812188085336</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.448333485989483</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.63468789516495</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.00842146788824347</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0985268108375842</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="n">
+        <v>194.703063339705</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.1597498098101</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.440024369654711</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.63564904534755</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.00839765366262867</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0985268108375842</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5692.10766711295</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.06263851520755</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.41469849063378</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.56243641876664</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0103940617142327</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.11504799681734</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="n">
+        <v>123.576144684827</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.77935537862057</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.717560370465843</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.4797291654574</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0131482209609555</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.136186618944209</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="n">
+        <v>166.859231698875</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.04655717070428</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.421804991298305</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.48113984493878</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0130962981518055</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.136186618944209</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="n">
+        <v>169.359724749099</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.08722037551644</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.443509029611358</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.45140527684219</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.014229963407742</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.142805588331918</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="n">
+        <v>116.995144352795</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.16960640419902</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.493025156880969</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.37230572897803</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0176774566343876</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.165625299088992</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="n">
+        <v>135.355849804972</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.54144794317845</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.670317392822128</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.29957921379415</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0214720708357519</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.184605065897931</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="n">
+        <v>148.596613841704</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.81717421137612</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.812023050757779</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.23783574823441</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0252317682645619</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.20131919696601</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="n">
+        <v>295.272770629172</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.03082202814401</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.461922553895965</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.2315905977091</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0256420336290042</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.201741156565475</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="n">
+        <v>199.324194019621</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.08026746763091</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.486302031014775</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.22139205418636</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0263244187431466</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.204263015539605</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="n">
+        <v>240.810948066538</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.23916015478578</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.569010582202032</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.17774535930477</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0294249998996446</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.215261814375362</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="n">
+        <v>146.475867653587</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.11973077614877</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.513391114073156</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.18104822123824</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0291798500165519</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.215261814375362</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="n">
+        <v>162.875529752027</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.77148861525751</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.839191621702955</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.11094649832498</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0347769107642469</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.23868165503243</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="n">
+        <v>349.890729066763</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.27965641565657</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.13762672373165</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.00387031009506</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0450839546965983</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.284356339957874</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="n">
+        <v>118.694484922242</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.23877113844275</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.63076178900115</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.96392863366758</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0495383687135172</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.301449659865222</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
